--- a/doc/少女と廃墟の街　企画書、仕様書/少女と廃墟の街 仮仕様.xlsx
+++ b/doc/少女と廃墟の街　企画書、仕様書/少女と廃墟の街 仮仕様.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirit\source\repos\Syojoto-Haikyono-Mati\doc\少女と廃墟の街　企画書、仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA9FCB6-8EC4-4D08-AC81-7DEA83E30868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22122FA2-2535-4345-A432-A32D2006F97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="1" r:id="rId1"/>
+    <sheet name="アクション仕様" sheetId="2" r:id="rId2"/>
+    <sheet name="ステータス" sheetId="3" r:id="rId3"/>
+    <sheet name="操作方法" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="109">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -96,6 +99,1002 @@
   </si>
   <si>
     <t xml:space="preserve">SFML / ImGui / cereal / </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1人</t>
+    <rPh sb="0" eb="2">
+      <t>ヒトリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20分～30分</t>
+    <rPh sb="2" eb="3">
+      <t>プン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>プン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンセプト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正義のための殺戮</t>
+    <rPh sb="0" eb="2">
+      <t>セイギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サツリク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発予定期間</t>
+    <rPh sb="0" eb="4">
+      <t>カイハツヨテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3か月（2025/11月～2026/2月迄）</t>
+  </si>
+  <si>
+    <t>2－1：使用可能武器</t>
+    <rPh sb="4" eb="10">
+      <t>シヨウカノウブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近距離武器</t>
+    <rPh sb="0" eb="5">
+      <t>キンキョリブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴</t>
+    <rPh sb="0" eb="2">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高威力、高リスク。接近して殺す必要がある。</t>
+    <rPh sb="0" eb="3">
+      <t>コウイリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッキン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コロ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎攻撃力。この数値に対しての割合でバフ計算。</t>
+    <rPh sb="0" eb="5">
+      <t>キソコウゲキリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ワリアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎体力。０になると死亡する。</t>
+    <rPh sb="0" eb="4">
+      <t>キソタイリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎防御力。敵から受けるダメージを数値分軽減する。防具で強化可能。</t>
+    <rPh sb="0" eb="5">
+      <t>キソボウギョリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>スウチブン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイゲン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ボウグ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>キョウカカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横方向の移動速度。</t>
+    <rPh sb="0" eb="3">
+      <t>ヨコホウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ力</t>
+    <rPh sb="4" eb="5">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直方向の初速。</t>
+    <rPh sb="0" eb="2">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃速度</t>
+    <rPh sb="0" eb="4">
+      <t>コウゲキソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃モーションの速さ。</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無敵時間</t>
+    <rPh sb="0" eb="4">
+      <t>ムテキジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ後の無敵秒数。</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ムテキビョウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー本体</t>
+    <rPh sb="5" eb="7">
+      <t>ホンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射撃間隔</t>
+    <rPh sb="0" eb="4">
+      <t>シャゲキカンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃の連射速度</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>レンシャソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装填数</t>
+    <rPh sb="0" eb="3">
+      <t>ソウテンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃のマガジンの数</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リロード時間</t>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾切れ後の再装填時間</t>
+    <rPh sb="0" eb="2">
+      <t>タマギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>サイソウテンジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠距離武器</t>
+    <rPh sb="0" eb="5">
+      <t>エンキョリブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低威力、低リスク。遠距離からでも殺せる。</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>イリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精神ダメージが蓄積。蓄積すると幻聴やバッドステータス。画面演出などの出現頻度が増えていく。</t>
+    <rPh sb="0" eb="2">
+      <t>セイシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チクセキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チクセキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲンチョウ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ガメンエンシュツ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>シュツゲンヒンド</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精神ダメージは微蓄積。</t>
+    <rPh sb="0" eb="2">
+      <t>セイシン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チクセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2－2：アクション項目</t>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣攻撃</t>
+    <rPh sb="0" eb="3">
+      <t>ケンコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃攻撃</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精神統一</t>
+    <rPh sb="0" eb="4">
+      <t>セイシントウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インタラクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器切り替え</t>
+    <rPh sb="0" eb="3">
+      <t>ブキキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴・補足</t>
+    <rPh sb="0" eb="2">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩行 / ダッシュ</t>
+    <rPh sb="0" eb="2">
+      <t>ホコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常ジャンプ / 二段ジャンプ</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斬撃（コンボあり）</t>
+    <rPh sb="0" eb="2">
+      <t>ザンゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動音は通常。精神状態が以上になってくると変化。</t>
+    <rPh sb="0" eb="3">
+      <t>イドウオン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>セイシンジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>跳躍できるってよりスパローのように移動ができる感じで。</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヤク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無敵時間は短め。</t>
+    <rPh sb="0" eb="4">
+      <t>ムテキジカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃アクション連打で 弱攻撃-&gt;中攻撃-&gt;強攻撃　に派生。</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>レンダ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ジャクコウゲキ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>チュウコウゲキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣状態と銃状態の切り替え</t>
+    <rPh sb="0" eb="3">
+      <t>ケンジョウタイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAN値の回復。精神値は一定以上は回復できなくて、専用のアロマがないと回復できない。また回復薬でもできるけど依存性が発生する。</t>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セイシンチ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>イッテイイジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>カイフクヤク</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>イゾンセイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街に落ちている看板や手記を見ることはできる。</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンバン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MnK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細説明</t>
+    <rPh sb="0" eb="4">
+      <t>ショウサイセツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態制限</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウタイセイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右移動</t>
+    <rPh sb="0" eb="4">
+      <t>サユウイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A / D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左スティック</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPACE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PAD(ps4基準)</t>
+    <rPh sb="7" eb="9">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LSHIFT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリック</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F or Q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが地上を左右に動く。地上での慣性より空中の慣性のほうが少し高くなるように。</t>
+    <rPh sb="6" eb="8">
+      <t>チジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上方向の移動量を設定。着地判定を解除する。重力で減少して落下する。</t>
+    <rPh sb="0" eb="3">
+      <t>ウエホウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>イドウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>チャクチハンテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地上</t>
+    <rPh sb="0" eb="2">
+      <t>チジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長押しで連続移動</t>
+    <rPh sb="0" eb="2">
+      <t>ナガオ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>レンゾクイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地上、空中</t>
+    <rPh sb="0" eb="2">
+      <t>チジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二段ジャンプ可能（クールタイムあり）</t>
+    <rPh sb="0" eb="2">
+      <t>ニダン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続使用不可。</t>
+    <rPh sb="0" eb="4">
+      <t>レンゾクシヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無敵時間を設定する。数フレーム間だけ。クールタイムあり。</t>
+    <rPh sb="0" eb="4">
+      <t>ムテキジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣状態と銃状態を切り替える。</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>双剣</t>
+    <rPh sb="0" eb="2">
+      <t>ソウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃方向</t>
+    <rPh sb="0" eb="4">
+      <t>コウゲキホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定形状</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向いている方向。</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四角形</t>
+    <rPh sb="0" eb="3">
+      <t>シカッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右スティックの傾けている方向。スティックを傾けていない時は向いている方向。</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円</t>
+    <rPh sb="0" eb="1">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固有動作</t>
+    <rPh sb="0" eb="2">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾薬数を画面上に表示。弾薬切れorリロードで弾薬の回復。弾切れ状態で撃とうとすると弾切れ音が鳴るように。</t>
+    <rPh sb="0" eb="3">
+      <t>ダンヤクスウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ダンヤクギ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ダンヤク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タマギ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>タマキ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -103,7 +1102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,13 +1117,27 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -139,8 +1152,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -421,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -476,10 +1490,518 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AC6B80-2EC3-442F-A8C2-AFCA3C7BE96C}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC40083-3CE4-493D-AC05-0C0B14F5E973}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44627D9E-F865-4AB6-8BDF-383DBE0F4B6A}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
